--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,33 +406,51 @@
         <v>prospectName</v>
       </c>
       <c r="I1" t="str">
+        <v>organization</v>
+      </c>
+      <c r="J1" t="str">
+        <v>campaign</v>
+      </c>
+      <c r="K1" t="str">
+        <v>__v</v>
+      </c>
+      <c r="L1" t="str">
         <v>leadStatus</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>followUp</v>
       </c>
-      <c r="K1" t="str">
-        <v>organization</v>
-      </c>
-      <c r="L1" t="str">
-        <v>campaign</v>
-      </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>nextAction</v>
       </c>
-      <c r="N1" t="str">
-        <v>__v</v>
+      <c r="O1" t="str">
+        <v>number</v>
+      </c>
+      <c r="P1" t="str">
+        <v>duration</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>type</v>
+      </c>
+      <c r="R1" t="str">
+        <v>requestedInformation</v>
+      </c>
+      <c r="S1" t="str">
+        <v>oldUser</v>
+      </c>
+      <c r="T1" t="str">
+        <v>campaignName</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>5fdf98fc8f21ff0f225b5283</v>
+        <v>5fddf3e14db4d6001b45aeaf</v>
       </c>
       <c r="C2" t="str">
-        <v>2020-12-20T18:26:25.252Z</v>
+        <v>2020-12-19T12:33:16.782Z</v>
       </c>
       <c r="E2" t="str">
-        <v>5fd9f66cf191a800a7653426</v>
+        <v>5fdb7d5b89c0c6001bcd9a93</v>
       </c>
       <c r="F2" t="str">
         <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
@@ -441,30 +459,3837 @@
         <v>shanur.cse.nitap@gmail.com</v>
       </c>
       <c r="H2" t="str">
+        <v>undefined undefined</v>
+      </c>
+      <c r="I2" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J2" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>5fde25b14db4d6001b45aeb5</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E3" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G3" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I3" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J3" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <v>OPEN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>5fde25f14db4d6001b45aeb6</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E4" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G4" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I4" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J4" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
+        <v>OPEN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>5fde34074db4d6001b45aeb9</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E5" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G5" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I5" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J5" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <v>OPEN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5fde34454db4d6001b45aeba</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E6" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F6" t="str">
+        <v>OPEN to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G6" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I6" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J6" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>5fde344e4db4d6001b45aebb</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E7" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F7" t="str">
+        <v>OPEN to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G7" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I7" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J7" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>5fde35c24db4d6001b45aebd</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E8" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G8" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I8" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J8" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <v>OPEN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>5fde3fc64db4d6001b45aebf</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2020-12-19T12:33:16.782Z</v>
+      </c>
+      <c r="E9" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G9" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I9" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J9" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
+        <v>OPEN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>5fe09b1192d69e001be5c433</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2020-12-21T12:38:12.241Z</v>
+      </c>
+      <c r="E10" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G10" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H10" t="str">
         <v>Manish Jha</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I10" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J10" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <v>CLOSED</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>5fe09b1792d69e001be5c434</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2020-12-21T12:38:12.241Z</v>
+      </c>
+      <c r="E11" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F11" t="str">
+        <v>OPEN to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G11" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I11" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J11" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>5fe09b3092d69e001be5c435</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2020-12-21T12:38:12.241Z</v>
+      </c>
+      <c r="E12" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F12" t="str">
+        <v>OPEN to warm by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G12" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I12" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J12" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
         <v>warm</v>
       </c>
-      <c r="J2" t="str">
-        <v>2020-12-20T18:43:13.398Z</v>
-      </c>
-      <c r="K2" t="str">
-        <v>5f663fcebb450386f9da5da8</v>
-      </c>
-      <c r="L2" t="str">
-        <v>5fdf8a50b9c62ef4e939f7ab</v>
-      </c>
-      <c r="M2" t="str">
+      <c r="M12" t="str">
+        <v>2020-12-21T13:55:09.369Z</v>
+      </c>
+      <c r="N12" t="str">
         <v>salesCall</v>
       </c>
-      <c r="N2">
-        <v>0</v>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>5fe09ef9ecf49f001b1bf170</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E13" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G13" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I13" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J13" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <v>warm</v>
+      </c>
+      <c r="M13" t="str">
+        <v>2020-12-21T13:55:09.369Z</v>
+      </c>
+      <c r="N13" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>5fe09efcecf49f001b1bf171</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E14" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F14" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G14" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I14" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J14" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>5fe09f00ecf49f001b1bf172</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E15" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F15" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G15" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I15" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J15" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>5fe09f03ecf49f001b1bf173</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E16" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F16" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G16" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I16" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J16" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>5fe09f04ecf49f001b1bf174</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E17" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F17" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G17" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I17" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J17" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5fe09f0becf49f001b1bf175</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E18" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F18" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G18" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I18" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J18" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>5fe09f0eecf49f001b1bf176</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E19" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F19" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G19" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I19" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J19" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5fe09f14ecf49f001b1bf177</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E20" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F20" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G20" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I20" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J20" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>5fe09f15ecf49f001b1bf178</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E21" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F21" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G21" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I21" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J21" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5fe09f17ecf49f001b1bf179</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E22" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F22" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G22" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I22" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J22" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>5fe09f1cecf49f001b1bf17a</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E23" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F23" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G23" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I23" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J23" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>5fe09f1fecf49f001b1bf17b</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E24" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F24" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G24" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I24" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J24" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>5fe09f2aecf49f001b1bf17c</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E25" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F25" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G25" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I25" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J25" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>5fe11405ecf49f001b1bf184</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E26" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G26" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I26" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J26" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <v>warm</v>
+      </c>
+      <c r="M26" t="str">
+        <v>2020-12-21T13:55:09.369Z</v>
+      </c>
+      <c r="N26" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>5fe11450ecf49f001b1bf186</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E27" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G27" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I27" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J27" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <v>warm</v>
+      </c>
+      <c r="M27" t="str">
+        <v>2020-12-21T13:55:09.369Z</v>
+      </c>
+      <c r="N27" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>5fe119c6ecf49f001b1bf188</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2020-12-21T13:09:29.844Z</v>
+      </c>
+      <c r="E28" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F28" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G28" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I28" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J28" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <v>2020-12-21T22:55:11.953Z</v>
+      </c>
+      <c r="N28" t="str">
+        <v>onSite</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5ffa0249fc3179001b7f2082</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2021-01-09T19:16:05.281Z</v>
+      </c>
+      <c r="E29" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G29" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I29" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J29" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N29" t="str">
+        <v>onSite</v>
+      </c>
+      <c r="O29" t="str">
+        <v>9199946568</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>5ffdfae7fc3179001b7f2085</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2021-01-09T19:16:05.281Z</v>
+      </c>
+      <c r="E30" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F30" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G30" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I30" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J30" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <v>2021-01-12T20:39:02.523Z</v>
+      </c>
+      <c r="N30" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>5ffdfb20fc3179001b7f2086</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2021-01-09T19:16:05.281Z</v>
+      </c>
+      <c r="E31" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F31" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G31" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I31" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J31" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="str">
+        <v>salesCall</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>60003333fc3179001b7f208d</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2021-01-09T19:16:05.281Z</v>
+      </c>
+      <c r="E32" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G32" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I32" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J32" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
+        <v>warm</v>
+      </c>
+      <c r="M32" t="str">
+        <v>2021-01-12T20:39:02.523Z</v>
+      </c>
+      <c r="N32" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O32" t="str">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>6000335bfc3179001b7f208e</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2021-01-09T19:16:05.281Z</v>
+      </c>
+      <c r="E33" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G33" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I33" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J33" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N33" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O33" t="str">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>6001db08996de3001bf28711</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2021-01-15T07:02:37.264Z</v>
+      </c>
+      <c r="E34" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F34" t="str">
+        <v>warm to Already bought by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G34" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I34" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J34" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Already bought</v>
+      </c>
+      <c r="M34" t="str">
+        <v>2021-01-15T18:22:16.770Z</v>
+      </c>
+      <c r="N34" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O34" t="str">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>6001f59c996de3001bf28732</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2021-01-15T07:02:37.264Z</v>
+      </c>
+      <c r="E35" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Already bought to warm by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G35" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I35" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J35" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N35" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O35" t="str">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>600b155ff4abdc4856020573</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2021-01-22T18:09:29.919Z</v>
+      </c>
+      <c r="E36" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F36" t="str" xml:space="preserve">
+        <v xml:space="preserve">CLOSED to Already bought by shanur.cse.nitap@gmail.com
+, changed due to rule 600812526f199e00c779641a</v>
+      </c>
+      <c r="G36" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I36" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J36" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
+        <v>won</v>
+      </c>
+      <c r="O36" t="str">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>60117670f1d59607a4a65c12</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2021-01-27T14:19:26.529Z</v>
+      </c>
+      <c r="E37" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F37" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G37" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I37" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J37" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>601187ecf1d59607a4a65c33</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2021-01-27T14:19:26.529Z</v>
+      </c>
+      <c r="E38" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F38" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G38" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I38" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J38" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="str">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>601189c5f1d59607a4a65c34</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2021-01-27T14:19:26.529Z</v>
+      </c>
+      <c r="E39" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F39" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G39" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I39" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J39" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>601189d2f1d59607a4a65c35</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2021-01-27T14:19:26.529Z</v>
+      </c>
+      <c r="E40" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F40" t="str">
+        <v>warm to undefined by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G40" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I40" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J40" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>60118e9bf1d59607a4a65c36</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2021-01-27T14:19:26.529Z</v>
+      </c>
+      <c r="E41" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F41" t="str">
+        <v>warm to cold by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G41" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I41" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J41" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="str">
+        <v>cold</v>
+      </c>
+      <c r="O41" t="str">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>6011acf0f1d59607a4a65c46</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2021-01-27T14:19:26.529Z</v>
+      </c>
+      <c r="E42" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G42" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I42" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J42" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="str">
+        <v>warm</v>
+      </c>
+      <c r="M42" t="str">
+        <v>2021-01-27T19:10:34.709Z</v>
+      </c>
+      <c r="N42" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>6011b9a9a26499083cd35a29</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2021-01-27T18:15:20.308Z</v>
+      </c>
+      <c r="E43" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F43" t="str">
+        <v>warm to Hot by shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="G43" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I43" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J43" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M43" t="str">
+        <v>2021-01-27T19:16:05.337Z</v>
+      </c>
+      <c r="N43" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O43" t="str">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>6011b9aea26499083cd35a2a</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2021-01-27T18:15:20.308Z</v>
+      </c>
+      <c r="E44" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G44" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I44" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J44" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M44" t="str">
+        <v>2021-01-27T19:16:05.337Z</v>
+      </c>
+      <c r="N44" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O44" t="str">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>6011b9ffa26499083cd35a2b</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2021-01-27T18:15:20.308Z</v>
+      </c>
+      <c r="E45" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Lead has been assigned to shanur.cse.nitap@gmail.com by default</v>
+      </c>
+      <c r="G45" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I45" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J45" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M45" t="str">
+        <v>2021-01-27T20:06:59.813Z</v>
+      </c>
+      <c r="N45" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O45" t="str">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>6013fea09d4f24008e753430</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2021-01-29T12:23:33.140Z</v>
+      </c>
+      <c r="E46" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Hot to undefined by shanur rahman</v>
+      </c>
+      <c r="G46" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I46" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J46" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O46" t="str">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>6013feba9d4f24008e753431</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2021-01-29T12:23:33.140Z</v>
+      </c>
+      <c r="E47" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Hot to undefined by shanur rahman</v>
+      </c>
+      <c r="G47" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I47" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J47" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O47" t="str">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>6013fec99d4f24008e753432</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2021-01-29T12:23:33.140Z</v>
+      </c>
+      <c r="E48" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Hot to undefined by shanur rahman</v>
+      </c>
+      <c r="G48" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I48" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J48" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O48" t="str">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>6013ff2141d2aa00f6d394f5</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E49" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Hot to undefined by shanur rahman</v>
+      </c>
+      <c r="G49" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I49" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J49" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="str">
+        <v>salesCall</v>
+      </c>
+      <c r="O49" t="str">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>6013ff3441d2aa00f6d394f6</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E50" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F50" t="str">
+        <v>undefined to warm by shanur rahman</v>
+      </c>
+      <c r="G50" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H50" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I50" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J50" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O50" t="str">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>6014015f41d2aa00f6d394f7</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E51" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Hot to won by shanur rahman</v>
+      </c>
+      <c r="G51" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I51" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J51" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="str">
+        <v>won</v>
+      </c>
+      <c r="N51" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O51" t="str">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>601401b941d2aa00f6d394f8</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E52" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Lead has been assigned to shanur rahman</v>
+      </c>
+      <c r="G52" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H52" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I52" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J52" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N52" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O52" t="str">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>601401f141d2aa00f6d394f9</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E53" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Lead has been assigned to shanur rahman</v>
+      </c>
+      <c r="G53" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I53" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J53" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="str">
+        <v>won</v>
+      </c>
+      <c r="N53" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>6014028d41d2aa00f6d394fa</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E54" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F54" t="str">
+        <v>warm to cold by shanur rahman</v>
+      </c>
+      <c r="G54" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H54" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I54" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J54" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="str">
+        <v>cold</v>
+      </c>
+      <c r="N54" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O54" t="str">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>6014029341d2aa00f6d394fb</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E55" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F55" t="str">
+        <v>won to undefined by shanur rahman</v>
+      </c>
+      <c r="G55" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I55" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J55" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O55" t="str">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>6014029941d2aa00f6d394fc</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E56" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F56" t="str">
+        <v>cold to undefined by shanur rahman</v>
+      </c>
+      <c r="G56" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H56" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I56" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J56" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O56" t="str">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>6014029f41d2aa00f6d394fd</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E57" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Lead has been assigned to shanur rahman</v>
+      </c>
+      <c r="G57" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I57" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J57" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="str">
+        <v>won</v>
+      </c>
+      <c r="N57" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O57" t="str">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>601402a641d2aa00f6d394fe</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E58" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F58" t="str">
+        <v>cold to warm by shanur rahman</v>
+      </c>
+      <c r="G58" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H58" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I58" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J58" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N58" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O58" t="str">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>601402ff41d2aa00f6d394ff</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E59" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F59" t="str">
+        <v>won to warm by shanur rahman</v>
+      </c>
+      <c r="G59" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I59" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J59" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N59" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O59" t="str">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>6014030541d2aa00f6d39500</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E60" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F60" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G60" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H60" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I60" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J60" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O60" t="str">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>6014032741d2aa00f6d39501</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E61" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F61" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G61" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I61" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J61" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O61" t="str">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>6014032d41d2aa00f6d39502</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E62" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F62" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G62" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H62" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I62" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J62" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O62" t="str">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>6014033441d2aa00f6d39503</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E63" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F63" t="str">
+        <v>warm to cold by shanur rahman</v>
+      </c>
+      <c r="G63" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I63" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J63" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="str">
+        <v>cold</v>
+      </c>
+      <c r="N63" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>6014033f41d2aa00f6d39504</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E64" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F64" t="str">
+        <v>warm to won by shanur rahman</v>
+      </c>
+      <c r="G64" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H64" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I64" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J64" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="str">
+        <v>won</v>
+      </c>
+      <c r="N64" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O64" t="str">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>6014038841d2aa00f6d39505</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E65" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Lead has been assigned to shanur rahman</v>
+      </c>
+      <c r="G65" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I65" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J65" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="str">
+        <v>cold</v>
+      </c>
+      <c r="N65" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O65" t="str">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>6014039341d2aa00f6d39506</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E66" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Lead has been assigned to shanur rahman</v>
+      </c>
+      <c r="G66" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H66" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I66" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J66" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="str">
+        <v>won</v>
+      </c>
+      <c r="N66" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O66" t="str">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>6014049841d2aa00f6d39507</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2021-01-29T12:27:08.986Z</v>
+      </c>
+      <c r="E67" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F67" t="str">
+        <v>cold to warm by shanur rahman</v>
+      </c>
+      <c r="G67" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I67" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J67" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N67" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O67" t="str">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>601adf257b467b04aa0b12f8</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2021-02-03T17:32:43.732Z</v>
+      </c>
+      <c r="E68" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F68" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G68" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I68" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J68" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O68" t="str">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>601adf2b7b467b04aa0b12f9</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2021-02-03T17:32:43.732Z</v>
+      </c>
+      <c r="E69" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F69" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G69" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I69" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J69" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O69" t="str">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>601adfa97b467b04aa0b12fa</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2021-02-03T17:32:43.732Z</v>
+      </c>
+      <c r="E70" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F70" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G70" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I70" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J70" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O70" t="str">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>601adfb47b467b04aa0b12fb</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2021-02-03T17:32:43.732Z</v>
+      </c>
+      <c r="E71" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F71" t="str">
+        <v>warm to undefined by shanur rahman</v>
+      </c>
+      <c r="G71" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Man Jha</v>
+      </c>
+      <c r="I71" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J71" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O71" t="str">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>60329dca25491a00271efb54</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2021-02-21T17:46:05.174Z</v>
+      </c>
+      <c r="E72" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F72" t="str">
+        <v>won to Hot by shanur rahman</v>
+      </c>
+      <c r="G72" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H72" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I72" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J72" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M72" t="str">
+        <v>2021-02-21T18:01:14.135Z</v>
+      </c>
+      <c r="N72" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O72" t="str">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>60329e5725491a00271efb55</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2021-02-21T17:46:05.174Z</v>
+      </c>
+      <c r="E73" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F73" t="str">
+        <v>CLOSED to Hot by shanur rahman</v>
+      </c>
+      <c r="G73" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I73" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J73" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M73" t="str">
+        <v>2021-02-22T17:53:26.440Z</v>
+      </c>
+      <c r="N73" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O73" t="str">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>6032a0ad8d272c026a29d8c6</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2021-02-21T18:04:24.323Z</v>
+      </c>
+      <c r="E74" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F74" t="str">
+        <v>OPEN to Hot by shanur rahman</v>
+      </c>
+      <c r="G74" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I74" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J74" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M74" t="str">
+        <v>2021-02-22T18:00:16.187Z</v>
+      </c>
+      <c r="N74" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O74" t="str">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>6032a16589ed37032c59fac9</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2021-02-21T18:07:10.032Z</v>
+      </c>
+      <c r="E75" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F75" t="str">
+        <v>OPEN to Hot by shanur rahman</v>
+      </c>
+      <c r="G75" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I75" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J75" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M75" t="str">
+        <v>2021-02-22T18:00:16.187Z</v>
+      </c>
+      <c r="N75" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O75" t="str">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>603be8e04533c30953b67ccf</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2021-02-28T18:53:54.106Z</v>
+      </c>
+      <c r="E76" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Hot to warm by shanur rahman</v>
+      </c>
+      <c r="G76" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H76" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I76" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J76" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N76" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O76" t="str">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="S76" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>6041cba531879c036ef55dbe</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2021-03-05T06:04:11.986Z</v>
+      </c>
+      <c r="E77" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="G77" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I77" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J77" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M77" t="str">
+        <v>2021-03-06T06:11:06.296Z</v>
+      </c>
+      <c r="N77" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O77" t="str">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="S77" t="str">
+        <v>shanur.cse.nitap@gmail.com</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>60437023386e18008f67c4a4</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2021-03-06T12:03:55.176Z</v>
+      </c>
+      <c r="E78" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="G78" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I78" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J78" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="str">
+        <v>cold</v>
+      </c>
+      <c r="O78" t="str">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="S78" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>6043702c386e18008f67c4a5</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2021-03-06T12:03:55.176Z</v>
+      </c>
+      <c r="E79" t="str">
+        <v>603e9947a84b7b09d079e649</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Using Another CRM to warm by Manish Jha</v>
+      </c>
+      <c r="G79" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H79" t="str">
+        <v>unique user</v>
+      </c>
+      <c r="I79" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J79" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O79" t="str">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="S79" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>6043703e386e18008f67c4a6</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2021-03-06T12:03:55.176Z</v>
+      </c>
+      <c r="E80" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Hot to cold by Manish Jha</v>
+      </c>
+      <c r="G80" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I80" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J80" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="str">
+        <v>cold</v>
+      </c>
+      <c r="O80" t="str">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="S80" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>60437047386e18008f67c4a7</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2021-03-06T12:03:55.176Z</v>
+      </c>
+      <c r="E81" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="G81" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H81" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I81" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J81" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O81" t="str">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="S81" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>60448991d28ff20027634cb4</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2021-03-07T08:00:41.778Z</v>
+      </c>
+      <c r="E82" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="G82" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H82" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I82" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J82" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="str">
+        <v>cold</v>
+      </c>
+      <c r="O82" t="str">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="S82" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>6044899bd28ff20027634cb5</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2021-03-07T08:00:41.778Z</v>
+      </c>
+      <c r="E83" t="str">
+        <v>603e9947a84b7b09d079e649</v>
+      </c>
+      <c r="G83" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H83" t="str">
+        <v>unique user</v>
+      </c>
+      <c r="I83" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J83" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O83" t="str">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="S83" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>604489ded28ff20027634cb6</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2021-03-07T08:00:41.778Z</v>
+      </c>
+      <c r="E84" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F84" t="str">
+        <v>cold to Already bought by Manish Jha</v>
+      </c>
+      <c r="G84" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I84" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J84" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Already bought</v>
+      </c>
+      <c r="O84" t="str">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="S84" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>6044a9c0d28ff20027634cb7</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2021-03-07T08:00:41.778Z</v>
+      </c>
+      <c r="E85" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F85" t="str">
+        <v>warm to Hot by Manish Jha</v>
+      </c>
+      <c r="G85" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H85" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I85" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J85" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="M85" t="str">
+        <v>2021-03-08T10:23:49.767Z</v>
+      </c>
+      <c r="N85" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O85" t="str">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="S85" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>6044a9f1d28ff20027634cb8</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2021-03-07T08:00:41.778Z</v>
+      </c>
+      <c r="E86" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F86" t="str">
+        <v>cold to Already bought by Manish Jha</v>
+      </c>
+      <c r="G86" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I86" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J86" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="str">
+        <v>Already bought</v>
+      </c>
+      <c r="O86" t="str">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="S86" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>604cf094e83ca809e4a69686</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2021-03-13T16:53:34.464Z</v>
+      </c>
+      <c r="E87" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="F87" t="str">
+        <v>cold to warm by Manish Jha</v>
+      </c>
+      <c r="G87" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H87" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I87" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J87" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O87" t="str">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="S87" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>604cf0b5e83ca809e4a69687</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2021-03-13T16:53:34.464Z</v>
+      </c>
+      <c r="E88" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F88" t="str" xml:space="preserve">
+        <v xml:space="preserve">Already bought to warm by Manish Jha
+ User Note: This is a new disposition just for testing. . . </v>
+      </c>
+      <c r="G88" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I88" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J88" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O88" t="str">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="S88" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>604cf101e83ca809e4a69688</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2021-03-13T16:53:34.464Z</v>
+      </c>
+      <c r="E89" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Already bought to warm by Manish Jha</v>
+      </c>
+      <c r="G89" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I89" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J89" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O89" t="str">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="S89" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>604cf28bca7d600fda9fbbce</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2021-03-13T17:12:18.568Z</v>
+      </c>
+      <c r="E90" t="str">
+        <v>603e9947a84b7b09d079e649</v>
+      </c>
+      <c r="G90" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H90" t="str">
+        <v>unique user</v>
+      </c>
+      <c r="I90" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J90" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N90" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O90" t="str">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="S90" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>604cf36511d23711f2919e1e</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2021-03-13T17:16:04.515Z</v>
+      </c>
+      <c r="E91" t="str">
+        <v>6012cedd3c66da055f3f1b30</v>
+      </c>
+      <c r="G91" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H91" t="str">
+        <v>camp222 camp222</v>
+      </c>
+      <c r="I91" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J91" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="str">
+        <v>warm</v>
+      </c>
+      <c r="N91" t="str">
+        <v>followUp</v>
+      </c>
+      <c r="O91" t="str">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="S91" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>604cf37411d23711f2919e1f</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2021-03-13T17:16:04.515Z</v>
+      </c>
+      <c r="E92" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="G92" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I92" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J92" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="str">
+        <v>warm</v>
+      </c>
+      <c r="O92" t="str">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="S92" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>604cf556498c9713b55f1450</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2021-03-13T17:24:09.412Z</v>
+      </c>
+      <c r="E93" t="str">
+        <v>604cf4c288db47131d200cbb</v>
+      </c>
+      <c r="F93" t="str">
+        <v>undefined to cold by Manish Jha</v>
+      </c>
+      <c r="G93" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H93" t="str">
+        <v>test dup - mob</v>
+      </c>
+      <c r="I93" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J93" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="str">
+        <v>cold</v>
+      </c>
+      <c r="O93" t="str">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="S93" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>604d0945d13e392f4d3bbf8a</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2021-03-13T18:49:15.002Z</v>
+      </c>
+      <c r="E94" t="str">
+        <v>604cf4c288db47131d200cbb</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Lead reassigned from sakshi@gmail.com to manager2@email.com by mnsh0203@gmail.com</v>
+      </c>
+      <c r="G94" t="str">
+        <v>manager2@email.com</v>
+      </c>
+      <c r="I94" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J94" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="S94" t="str">
+        <v>sakshi@gmail.com</v>
+      </c>
+      <c r="T94" t="str">
+        <v>Campaign-v3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>60511f52d1ae6100278ab5f5</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2021-03-16T21:04:57.111Z</v>
+      </c>
+      <c r="E95" t="str">
+        <v>5fd9f66cf191a800a7653424</v>
+      </c>
+      <c r="F95" t="str">
+        <v>warm to manish error leaf by Manish Jha</v>
+      </c>
+      <c r="G95" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Shanur Rahman</v>
+      </c>
+      <c r="I95" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J95" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="str">
+        <v>manish error leaf</v>
+      </c>
+      <c r="O95" t="str">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="S95" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>60511f86d1ae6100278ab5f6</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2021-03-16T21:04:57.111Z</v>
+      </c>
+      <c r="E96" t="str">
+        <v>603e9947a84b7b09d079e649</v>
+      </c>
+      <c r="F96" t="str">
+        <v>warm to Interested by Manish Jha</v>
+      </c>
+      <c r="G96" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H96" t="str">
+        <v>unique user</v>
+      </c>
+      <c r="I96" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J96" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="O96" t="str">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+      <c r="S96" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>60512465d1ae6100278ab5f7</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2021-03-16T21:04:57.111Z</v>
+      </c>
+      <c r="E97" t="str">
+        <v>5fd9f66cf191a800a7653426</v>
+      </c>
+      <c r="F97" t="str">
+        <v>warm to Interested by Manish Jha</v>
+      </c>
+      <c r="G97" t="str">
+        <v>mnsh0203@gmail.com</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Manish Jha</v>
+      </c>
+      <c r="I97" t="str">
+        <v>5f663fcebb450386f9da5da8</v>
+      </c>
+      <c r="J97" t="str">
+        <v>5fd9f611f191a800a76533dc</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="M97" t="str">
+        <v>2021-03-17T21:34:05.559Z</v>
+      </c>
+      <c r="N97" t="str">
+        <v>appointment</v>
+      </c>
+      <c r="O97" t="str">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="S97" t="str">
+        <v>mnsh0203@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T97"/>
   </ignoredErrors>
 </worksheet>
 </file>